--- a/public/convocazioni.xlsx
+++ b/public/convocazioni.xlsx
@@ -25,7 +25,7 @@
     <t>Alessandro</t>
   </si>
   <si>
-    <t>si</t>
+    <t>false</t>
   </si>
   <si>
     <t>Daniel</t>
